--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -10,8 +10,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fan" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motor" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Toy" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metal Tools" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Copper granule" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Copper Dust" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Copper granule" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metal Tools" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,15 +680,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wires</t>
+          <t>Plates</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>PC</t>
         </is>
       </c>
     </row>
@@ -695,15 +698,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plates</t>
+          <t>Wires</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -725,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,7 +874,43 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>End of RM</t>
         </is>
@@ -888,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +970,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Metal Tools</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -985,38 +1024,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Iron chips</t>
+          <t>test5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Kg</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Copper granule</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>End of RM</t>
         </is>
@@ -1076,7 +1097,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Copper granule</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1130,7 +1151,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Copper Dust</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1144,6 +1165,405 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
+        <is>
+          <t>End of RM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Finished Good List</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Copper Dust</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>End of FG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Raw Material List</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>End of RM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Finished Good List</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Copper granule</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>End of FG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Raw Material List</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Copper Dust</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>End of RM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Finished Good List</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Metal Tools</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>End of FG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Raw Material List</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Copper granule</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iron chips</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>End of RM</t>
         </is>
